--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D7C297-E98E-4744-A889-89181ABF5592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A005266-1A45-4FD9-B335-4FF519930827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +289,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +307,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,11 +324,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,12 +337,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +703,7 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -752,7 +769,7 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -831,7 +848,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -868,8 +885,8 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" cm="1">
@@ -906,115 +923,115 @@
       <c r="M5" s="2">
         <v>11</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>12</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>13</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>14</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>15</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>16</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>17</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <v>18</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="2">
         <v>19</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="2">
         <v>20</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" cm="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" cm="1">
         <f t="array" ref="C6:E6">_xlfn.SEQUENCE(1, 3, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" cm="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" cm="1">
         <f t="array" ref="C7:N7">_xlfn.SEQUENCE(1, 12, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
         <v>11</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" cm="1">
+      <c r="C8" s="2" cm="1">
         <f t="array" ref="C8:H8">_xlfn.SEQUENCE(1, 6, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="1">
@@ -1022,7 +1039,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1073,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1107,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1157,7 +1174,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1203,7 +1220,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1264,7 +1281,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1303,7 +1320,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1444,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1490,7 @@
       </c>
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1596,7 @@
       </c>
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1636,7 @@
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1700,7 @@
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1741,7 +1758,7 @@
       </c>
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1796,7 +1813,7 @@
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1824,7 +1841,7 @@
       </c>
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1842,7 +1859,7 @@
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +1878,7 @@
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2075,7 +2092,7 @@
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2127,7 +2144,7 @@
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2305,7 +2322,7 @@
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2513,7 +2530,7 @@
       </c>
     </row>
     <row r="29" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,7 +2555,7 @@
       </c>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2571,7 +2588,7 @@
       </c>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2658,7 @@
       </c>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2675,7 +2692,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -2700,7 +2717,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2758,7 +2775,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2777,7 +2794,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2826,7 +2843,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2845,7 +2862,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
@@ -2882,7 +2899,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2898,7 +2915,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2950,7 +2967,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3002,7 +3019,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3060,7 +3077,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
@@ -3094,7 +3111,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -3125,7 +3142,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3168,7 +3185,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3220,7 +3237,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3257,7 +3274,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3300,7 +3317,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3364,7 +3381,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3410,7 +3427,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3467,7 +3484,7 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +3533,7 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3616,7 +3633,7 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
@@ -3668,7 +3685,7 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
@@ -3738,7 +3755,7 @@
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
@@ -3763,7 +3780,7 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3826,7 +3843,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +3892,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
@@ -3897,7 +3914,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
@@ -3946,7 +3963,7 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
@@ -3971,7 +3988,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
@@ -3987,7 +4004,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
         <v>27</v>
       </c>

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A005266-1A45-4FD9-B335-4FF519930827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EC1CBE-CF4A-4E8F-83C9-248F997305A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="167" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" cm="1">
@@ -1034,41 +1034,41 @@
       <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" cm="1">
+      <c r="C9" s="2" cm="1">
         <f t="array" ref="C9:K9">_xlfn.SEQUENCE(1, 9, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1077,17 +1077,17 @@
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" cm="1">
+      <c r="C10" s="2" cm="1">
         <f t="array" ref="C10:K10">_xlfn.SEQUENCE(1, 9, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="1">

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EC1CBE-CF4A-4E8F-83C9-248F997305A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2C7B2-D600-4AA0-8A2B-1BCA67B1B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" cm="1">
@@ -1090,86 +1090,86 @@
       <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" cm="1">
+      <c r="C11" s="2" cm="1">
         <f t="array" ref="C11:V11">_xlfn.SEQUENCE(1, 20, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>6</v>
-      </c>
-      <c r="I11" s="1">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2">
         <v>11</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>12</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>13</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>14</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="3">
         <v>15</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>16</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <v>17</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="2">
         <v>18</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="2">
         <v>19</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1178,23 +1178,23 @@
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" cm="1">
+      <c r="C12" s="2" cm="1">
         <f t="array" ref="C12:O12">_xlfn.SEQUENCE(1, 13, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>6</v>
       </c>
       <c r="I12" s="1">

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2C7B2-D600-4AA0-8A2B-1BCA67B1B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF69A2-26BC-430A-9435-905E23636ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +296,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +321,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -324,12 +336,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,8 +356,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,22 +1214,22 @@
       <c r="H12" s="3">
         <v>6</v>
       </c>
-      <c r="I12" s="1">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1">
-        <v>10</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10</v>
+      </c>
+      <c r="M12" s="5">
         <v>11</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>12</v>
       </c>
       <c r="O12" s="1">

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF69A2-26BC-430A-9435-905E23636ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A6275F-C7A9-4F96-815C-BC7A01F4D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -342,7 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,11 +353,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -698,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -786,7 +789,7 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -865,7 +868,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -902,7 +905,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -972,7 +975,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -988,7 +991,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1034,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1059,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1093,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1191,8 +1194,8 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" cm="1">
@@ -1226,92 +1229,92 @@
       <c r="L12" s="2">
         <v>10</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>11</v>
       </c>
       <c r="N12" s="2">
         <v>12</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" cm="1">
+      <c r="C13" s="2" cm="1">
         <f t="array" ref="C13:T13">_xlfn.SEQUENCE(1, 18, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1">
-        <v>8</v>
-      </c>
-      <c r="K13" s="1">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4">
         <v>11</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>12</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <v>13</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <v>14</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="2">
         <v>15</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>16</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="2">
         <v>17</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14:L14">_xlfn.SEQUENCE(1, 10, 1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="2" cm="1">
+        <f t="array" ref="C14:G14">_xlfn.SEQUENCE(1, 5, 1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
         <v>3</v>
       </c>
       <c r="F14" s="1">
@@ -1320,24 +1323,9 @@
       <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1405,7 @@
       <c r="AA15" s="1">
         <v>25</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15">
         <v>26</v>
       </c>
       <c r="AC15" s="1">
@@ -1461,7 +1449,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +1495,7 @@
       </c>
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1601,7 @@
       </c>
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1641,7 @@
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +1705,7 @@
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1775,7 +1763,7 @@
       </c>
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1830,7 +1818,7 @@
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1858,7 +1846,7 @@
       </c>
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1876,7 +1864,7 @@
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1883,7 @@
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2097,7 @@
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2161,7 +2149,7 @@
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2339,7 +2327,7 @@
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2547,7 +2535,7 @@
       </c>
     </row>
     <row r="29" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2572,7 +2560,7 @@
       </c>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2605,7 +2593,7 @@
       </c>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2675,7 +2663,7 @@
       </c>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2709,7 +2697,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -2734,7 +2722,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2792,7 +2780,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,7 +2799,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2860,7 +2848,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2879,7 +2867,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
@@ -2916,7 +2904,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2932,7 +2920,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2984,7 +2972,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3036,7 +3024,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3094,7 +3082,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
@@ -3128,7 +3116,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -3159,7 +3147,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3202,7 +3190,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3254,7 +3242,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3291,7 +3279,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3334,7 +3322,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3398,7 +3386,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3432,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3501,7 +3489,7 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3550,7 +3538,7 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3650,7 +3638,7 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
@@ -3702,7 +3690,7 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
@@ -3772,7 +3760,7 @@
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
@@ -3797,7 +3785,7 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3860,7 +3848,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
@@ -3909,7 +3897,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
@@ -3931,7 +3919,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
@@ -3980,7 +3968,7 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
@@ -4005,7 +3993,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
@@ -4021,7 +4009,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="1" t="s">
         <v>27</v>
       </c>

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A6275F-C7A9-4F96-815C-BC7A01F4D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351FDDF-9772-43CD-9247-2AFE66E76211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1304,7 @@
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" cm="1">
@@ -1317,10 +1317,10 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1329,38 +1329,38 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" cm="1">
+      <c r="C15" s="2" cm="1">
         <f t="array" ref="C15:AO15">_xlfn.SEQUENCE(1, 39, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1">
-        <v>7</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>9</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
         <v>11</v>
       </c>
       <c r="N15" s="1">

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351FDDF-9772-43CD-9247-2AFE66E76211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4714A-BA6B-4CD1-8441-84FD01996285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -342,7 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +726,7 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -868,7 +871,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -905,7 +908,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -975,7 +978,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -991,7 +994,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1037,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1093,7 +1096,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1127,7 +1130,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1194,7 +1197,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1243,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1301,7 +1304,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1325,7 +1328,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1363,49 +1366,49 @@
       <c r="M15" s="2">
         <v>11</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>12</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>13</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <v>14</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>15</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <v>16</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>17</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <v>18</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <v>19</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <v>20</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="2">
         <v>21</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="2">
         <v>22</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="3">
         <v>23</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="2">
         <v>24</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="2">
         <v>25</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="5">
         <v>26</v>
       </c>
       <c r="AC15" s="1">
@@ -1449,7 +1452,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1604,7 @@
       </c>
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1644,7 @@
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1705,7 +1708,7 @@
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1763,7 +1766,7 @@
       </c>
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1818,7 +1821,7 @@
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1846,7 +1849,7 @@
       </c>
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1864,7 +1867,7 @@
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1886,7 @@
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2097,7 +2100,7 @@
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2149,7 +2152,7 @@
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2327,7 +2330,7 @@
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2535,7 +2538,7 @@
       </c>
     </row>
     <row r="29" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2560,7 +2563,7 @@
       </c>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2593,7 +2596,7 @@
       </c>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2663,7 +2666,7 @@
       </c>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2700,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -2722,7 +2725,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2783,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
@@ -2799,7 +2802,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2851,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
@@ -2867,7 +2870,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
@@ -2904,7 +2907,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2920,7 +2923,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2975,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
@@ -3024,7 +3027,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3082,7 +3085,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>56</v>
       </c>
@@ -3116,7 +3119,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -3147,7 +3150,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3190,7 +3193,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3242,7 +3245,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3279,7 +3282,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3322,7 +3325,7 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3386,7 +3389,7 @@
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3432,7 +3435,7 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3489,7 +3492,7 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3538,7 +3541,7 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3638,7 +3641,7 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
@@ -3690,7 +3693,7 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
@@ -3760,7 +3763,7 @@
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>68</v>
       </c>
@@ -3785,7 +3788,7 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3848,7 +3851,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
@@ -3897,7 +3900,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
@@ -3919,7 +3922,7 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
@@ -3968,7 +3971,7 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>25</v>
       </c>
@@ -3993,7 +3996,7 @@
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
@@ -4009,7 +4012,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>27</v>
       </c>

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4714A-BA6B-4CD1-8441-84FD01996285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62852054-8437-41E6-A42D-49631B72CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1381,7 @@
       <c r="R15" s="2">
         <v>16</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="2">
         <v>17</v>
       </c>
       <c r="T15" s="2">
@@ -1411,25 +1411,25 @@
       <c r="AB15" s="5">
         <v>26</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="2">
         <v>27</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="3">
         <v>28</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="2">
         <v>29</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="4">
         <v>30</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15" s="2">
         <v>31</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="2">
         <v>32</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="2">
         <v>33</v>
       </c>
       <c r="AJ15" s="1">
@@ -1441,7 +1441,7 @@
       <c r="AL15" s="1">
         <v>36</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="3">
         <v>37</v>
       </c>
       <c r="AN15" s="1">
@@ -1456,17 +1456,17 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" cm="1">
+      <c r="C16" s="2" cm="1">
         <f t="array" ref="C16:O16">_xlfn.SEQUENCE(1, 13, 1, 1)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
         <v>4</v>
       </c>
       <c r="G16" s="1">

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62852054-8437-41E6-A42D-49631B72CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24FE0E-3A27-4531-944C-9D27DA8A55A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT54" sqref="AT54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,22 +1432,22 @@
       <c r="AI15" s="2">
         <v>33</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="2">
         <v>34</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="2">
         <v>35</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="2">
         <v>36</v>
       </c>
       <c r="AM15" s="3">
         <v>37</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="2">
         <v>38</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="2">
         <v>39</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" cm="1">
-        <f t="array" ref="C16:O16">_xlfn.SEQUENCE(1, 13, 1, 1)</f>
+        <f t="array" ref="C16:T16">_xlfn.SEQUENCE(1, 18, 1, 1)</f>
         <v>1</v>
       </c>
       <c r="D16" s="2">
@@ -1495,6 +1495,21 @@
       </c>
       <c r="O16" s="1">
         <v>13</v>
+      </c>
+      <c r="P16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>15</v>
+      </c>
+      <c r="R16" s="1">
+        <v>16</v>
+      </c>
+      <c r="S16" s="1">
+        <v>17</v>
+      </c>
+      <c r="T16" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.25">

--- a/garrity/progress.xlsx
+++ b/garrity/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\OneDrive - The Ohio State University\Desktop\math\garrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24FE0E-3A27-4531-944C-9D27DA8A55A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D30AF17-9C5D-4708-9B9B-F0DF44914C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09A90C30-3EC0-4E15-9F4D-3CA6F350D8BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713840B1-B487-440A-A630-862760C6052D}">
   <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT54" sqref="AT54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="144" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,19 +1469,19 @@
       <c r="F16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>8</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2">
         <v>9</v>
       </c>
       <c r="L16" s="1">
@@ -1517,7 +1517,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" cm="1">
+      <c r="C17" s="2" cm="1">
         <f t="array" ref="C17:AI17">_xlfn.SEQUENCE(1, 33, 1, 1)</f>
         <v>1</v>
       </c>
